--- a/ErgodeBookAutomation_Framework/src/main/java/com/ErgodeBook/TestData/ErgodeBook.xlsx
+++ b/ErgodeBookAutomation_Framework/src/main/java/com/ErgodeBook/TestData/ErgodeBook.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Registeration" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ContactUs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -49,6 +49,33 @@
   </si>
   <si>
     <t>ergode123</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Enquiry</t>
+  </si>
+  <si>
+    <t>Mohammed Irfanulla Ansari</t>
+  </si>
+  <si>
+    <t>Payment Issue</t>
+  </si>
+  <si>
+    <t>Need Help from someone</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>+1 281-738-1050</t>
   </si>
 </sst>
 </file>
@@ -71,12 +98,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,9 +128,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -396,7 +431,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -410,22 +445,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -459,12 +494,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ErgodeBookAutomation_Framework/src/main/java/com/ErgodeBook/TestData/ErgodeBook.xlsx
+++ b/ErgodeBookAutomation_Framework/src/main/java/com/ErgodeBook/TestData/ErgodeBook.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="17175" windowHeight="6165"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="17175" windowHeight="6165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registeration" sheetId="1" r:id="rId1"/>
     <sheet name="ContactUs" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="InvalidRegisterData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>FirstName</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>+1 281-738-1050</t>
+  </si>
+  <si>
+    <t>123Mohammed Irfanullah</t>
+  </si>
+  <si>
+    <t>Ansari123</t>
+  </si>
+  <si>
+    <t>mdirfan201@gmail.com123</t>
+  </si>
+  <si>
+    <t>#ergode123</t>
   </si>
 </sst>
 </file>
@@ -430,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -552,12 +564,129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ErgodeBookAutomation_Framework/src/main/java/com/ErgodeBook/TestData/ErgodeBook.xlsx
+++ b/ErgodeBookAutomation_Framework/src/main/java/com/ErgodeBook/TestData/ErgodeBook.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="17175" windowHeight="6165" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="17175" windowHeight="6165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Registeration" sheetId="1" r:id="rId1"/>
     <sheet name="ContactUs" sheetId="2" r:id="rId2"/>
     <sheet name="InvalidRegisterData" sheetId="3" r:id="rId3"/>
+    <sheet name="Forgot" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>FirstName</t>
   </si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>#ergode123</t>
+  </si>
+  <si>
+    <t>irfanullah@bosontech.ai</t>
   </si>
 </sst>
 </file>
@@ -443,7 +447,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,11 +513,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -566,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -689,4 +694,41 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>